--- a/IncaFormative.xlsx
+++ b/IncaFormative.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="25">
   <si>
     <t>[5 10]</t>
   </si>
@@ -75,21 +75,6 @@
     <t>Number of runs</t>
   </si>
   <si>
-    <t>MSE (average)</t>
-  </si>
-  <si>
-    <t>Epoch (average)</t>
-  </si>
-  <si>
-    <t>Training-Regression (average)</t>
-  </si>
-  <si>
-    <t>Validation-Regression (average)</t>
-  </si>
-  <si>
-    <t>Test-Regression (average)</t>
-  </si>
-  <si>
     <t>Training function</t>
   </si>
   <si>
@@ -100,6 +85,21 @@
   </si>
   <si>
     <t>trainoss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training-Regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation-Regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-Regression </t>
   </si>
 </sst>
 </file>
@@ -125,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +204,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -280,11 +286,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -418,6 +448,43 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="S25" sqref="L1:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,9 +781,13 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,8 +812,32 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -767,8 +862,32 @@
       <c r="H2" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="38">
+        <v>5</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="60">
+        <v>81.436000000000007</v>
+      </c>
+      <c r="P2" s="60">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Q2" s="60">
+        <v>0.377</v>
+      </c>
+      <c r="R2" s="60">
+        <v>0.628</v>
+      </c>
+      <c r="S2" s="60">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4">
@@ -789,8 +908,30 @@
       <c r="H3" s="4">
         <v>-0.155</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="54"/>
+      <c r="M3" s="38">
+        <v>10</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="38">
+        <v>90.54</v>
+      </c>
+      <c r="P3" s="38">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="R3" s="38">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="S3" s="38">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4">
@@ -811,8 +952,30 @@
       <c r="H4" s="4">
         <v>-4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="54"/>
+      <c r="M4" s="38">
+        <v>15</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="38">
+        <v>107.01</v>
+      </c>
+      <c r="P4" s="38">
+        <v>6.6660000000000004</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="R4" s="38">
+        <v>0.499</v>
+      </c>
+      <c r="S4" s="38">
+        <v>-0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
@@ -833,8 +996,30 @@
       <c r="H5" s="9">
         <v>-4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="54"/>
+      <c r="M5" s="38">
+        <v>20</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="38">
+        <v>154.18600000000001</v>
+      </c>
+      <c r="P5" s="38">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="R5" s="38">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="S5" s="38">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4">
         <v>10</v>
@@ -857,8 +1042,30 @@
       <c r="H6" s="4">
         <v>-4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="54"/>
+      <c r="M6" s="38">
+        <v>25</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="38">
+        <v>90.353999999999999</v>
+      </c>
+      <c r="P6" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="R6" s="38">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="S6" s="38">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4">
@@ -879,8 +1086,30 @@
       <c r="H7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="54"/>
+      <c r="M7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="40">
+        <v>81.593230000000005</v>
+      </c>
+      <c r="P7" s="40">
+        <v>8.3333329999999997</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>0.59767700000000001</v>
+      </c>
+      <c r="R7" s="40">
+        <v>0.55496299999999998</v>
+      </c>
+      <c r="S7" s="40">
+        <v>0.132354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4">
@@ -901,8 +1130,30 @@
       <c r="H8" s="4">
         <v>-2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="54"/>
+      <c r="M8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="40">
+        <v>97.14743</v>
+      </c>
+      <c r="P8" s="40">
+        <v>5.3333329999999997</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>0.45896700000000001</v>
+      </c>
+      <c r="R8" s="40">
+        <v>0.52613699999999997</v>
+      </c>
+      <c r="S8" s="40">
+        <v>1.5372E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="10" t="s">
@@ -923,8 +1174,30 @@
       <c r="H9" s="10">
         <v>-2.3E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="54"/>
+      <c r="M9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="40">
+        <v>93.987200000000001</v>
+      </c>
+      <c r="P9" s="40">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>0.62894000000000005</v>
+      </c>
+      <c r="R9" s="40">
+        <v>0.54525999999999997</v>
+      </c>
+      <c r="S9" s="40">
+        <v>7.9668000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4">
         <v>15</v>
@@ -947,8 +1220,32 @@
       <c r="H10" s="4">
         <v>-0.182</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="38">
+        <v>5</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="38">
+        <v>87.718999999999994</v>
+      </c>
+      <c r="P10" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>0.45</v>
+      </c>
+      <c r="R10" s="38">
+        <v>0.52</v>
+      </c>
+      <c r="S10" s="38">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4">
@@ -969,8 +1266,30 @@
       <c r="H11" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="54"/>
+      <c r="M11" s="38">
+        <v>10</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="38">
+        <v>78.846999999999994</v>
+      </c>
+      <c r="P11" s="38">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="Q11" s="38">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="R11" s="38">
+        <v>0.67</v>
+      </c>
+      <c r="S11" s="38">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4">
@@ -991,8 +1310,30 @@
       <c r="H12" s="4">
         <v>-0.28699999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="54"/>
+      <c r="M12" s="38">
+        <v>15</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="38">
+        <v>99.954999999999998</v>
+      </c>
+      <c r="P12" s="38">
+        <v>3.6659999999999999</v>
+      </c>
+      <c r="Q12" s="38">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="R12" s="38">
+        <v>0.499</v>
+      </c>
+      <c r="S12" s="38">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="10" t="s">
@@ -1013,8 +1354,30 @@
       <c r="H13" s="10">
         <v>-0.14399999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="54"/>
+      <c r="M13" s="38">
+        <v>20</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="38">
+        <v>110.36499999999999</v>
+      </c>
+      <c r="P13" s="38">
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>0.625</v>
+      </c>
+      <c r="R13" s="38">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S13" s="38">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="4">
         <v>20</v>
@@ -1037,8 +1400,30 @@
       <c r="H14" s="4">
         <v>0.14299999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="54"/>
+      <c r="M14" s="38">
+        <v>25</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="38">
+        <v>128.79599999999999</v>
+      </c>
+      <c r="P14" s="38">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="R14" s="38">
+        <v>0.505</v>
+      </c>
+      <c r="S14" s="38">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="4">
@@ -1059,8 +1444,30 @@
       <c r="H15" s="4">
         <v>0.27700000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="54"/>
+      <c r="M15" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="40">
+        <v>91.066599999999994</v>
+      </c>
+      <c r="P15" s="40">
+        <v>9.6666670000000003</v>
+      </c>
+      <c r="Q15" s="40">
+        <v>0.64058700000000002</v>
+      </c>
+      <c r="R15" s="40">
+        <v>0.52235699999999996</v>
+      </c>
+      <c r="S15" s="40">
+        <v>-2.0289999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4">
@@ -1081,8 +1488,30 @@
       <c r="H16" s="4">
         <v>0.39400000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="54"/>
+      <c r="M16" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="40">
+        <v>83.655699999999996</v>
+      </c>
+      <c r="P16" s="40">
+        <v>10.33333</v>
+      </c>
+      <c r="Q16" s="40">
+        <v>0.64649000000000001</v>
+      </c>
+      <c r="R16" s="40">
+        <v>0.56535299999999999</v>
+      </c>
+      <c r="S16" s="40">
+        <v>9.1871999999999995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
@@ -1103,8 +1532,30 @@
       <c r="H17" s="13">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="54"/>
+      <c r="M17" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="38">
+        <v>111.88160000000001</v>
+      </c>
+      <c r="P17" s="40">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>0.55109699999999995</v>
+      </c>
+      <c r="R17" s="40">
+        <v>0.54356000000000004</v>
+      </c>
+      <c r="S17" s="40">
+        <v>8.1210000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="4">
         <v>25</v>
@@ -1127,8 +1578,32 @@
       <c r="H18" s="4">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="38">
+        <v>5</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="38">
+        <v>81.436000000000007</v>
+      </c>
+      <c r="P18" s="38">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Q18" s="38">
+        <v>0.377</v>
+      </c>
+      <c r="R18" s="38">
+        <v>0.628</v>
+      </c>
+      <c r="S18" s="38">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="4">
@@ -1149,8 +1624,30 @@
       <c r="H19" s="4">
         <v>-0.13400000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="54"/>
+      <c r="M19" s="38">
+        <v>10</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="38">
+        <v>90.54</v>
+      </c>
+      <c r="P19" s="38">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="38">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="R19" s="38">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="S19" s="38">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4">
@@ -1171,8 +1668,30 @@
       <c r="H20" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="54"/>
+      <c r="M20" s="38">
+        <v>15</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="38">
+        <v>107.01</v>
+      </c>
+      <c r="P20" s="38">
+        <v>6.6660000000000004</v>
+      </c>
+      <c r="Q20" s="38">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="R20" s="38">
+        <v>0.499</v>
+      </c>
+      <c r="S20" s="38">
+        <v>-0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
@@ -1193,8 +1712,30 @@
       <c r="H21" s="10">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="54"/>
+      <c r="M21" s="38">
+        <v>20</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="38">
+        <v>154.18600000000001</v>
+      </c>
+      <c r="P21" s="38">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="R21" s="38">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="S21" s="38">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="16" t="s">
         <v>0</v>
@@ -1217,8 +1758,30 @@
       <c r="H22" s="32">
         <v>-5.4879999999999998E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="54"/>
+      <c r="M22" s="38">
+        <v>25</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="38">
+        <v>128.79599999999999</v>
+      </c>
+      <c r="P22" s="38">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="Q22" s="38">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="R22" s="38">
+        <v>0.505</v>
+      </c>
+      <c r="S22" s="38">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16">
@@ -1239,8 +1802,30 @@
       <c r="H23" s="32">
         <v>0.13034999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="54"/>
+      <c r="M23" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="40">
+        <v>90.278270000000006</v>
+      </c>
+      <c r="P23" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="40">
+        <v>0.53142</v>
+      </c>
+      <c r="R23" s="40">
+        <v>0.54756700000000003</v>
+      </c>
+      <c r="S23" s="40">
+        <v>0.181616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16">
@@ -1261,8 +1846,30 @@
       <c r="H24" s="32">
         <v>0.32158999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="54"/>
+      <c r="M24" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="40">
+        <v>65.881429999999995</v>
+      </c>
+      <c r="P24" s="40">
+        <v>8.6666670000000003</v>
+      </c>
+      <c r="Q24" s="40">
+        <v>0.52130299999999996</v>
+      </c>
+      <c r="R24" s="40">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="S24" s="40">
+        <v>0.209041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
@@ -1283,8 +1890,30 @@
       <c r="H25" s="30">
         <v>0.132354</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="54"/>
+      <c r="M25" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="38">
+        <v>195.3809</v>
+      </c>
+      <c r="P25" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="40">
+        <v>0.53244000000000002</v>
+      </c>
+      <c r="R25" s="40">
+        <v>0.54452</v>
+      </c>
+      <c r="S25" s="40">
+        <v>4.6017000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
         <v>2</v>
@@ -1308,7 +1937,7 @@
         <v>-0.29450999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16">
@@ -1330,7 +1959,7 @@
         <v>0.29138999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16">
@@ -1352,7 +1981,7 @@
         <v>4.9237000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
@@ -1374,7 +2003,7 @@
         <v>1.5372E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>3</v>
@@ -1398,7 +2027,7 @@
         <v>9.3507999999999994E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16">
@@ -1420,7 +2049,7 @@
         <v>0.16041</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16">
@@ -2916,10 +3545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,9 +3557,10 @@
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
@@ -2941,25 +3571,52 @@
         <v>15</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>14</v>
       </c>
@@ -2970,137 +3627,379 @@
         <v>3</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="42">
-        <v>81.900499999999994</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="43">
+        <v>79.2226</v>
       </c>
       <c r="F2" s="42">
-        <v>12</v>
-      </c>
-      <c r="G2" s="42">
-        <v>0.27179999999999999</v>
-      </c>
-      <c r="H2" s="42">
-        <v>0.59819</v>
-      </c>
-      <c r="I2" s="42">
-        <v>-5.8171E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="G2" s="43">
+        <v>0.41553499999999999</v>
+      </c>
+      <c r="H2" s="43">
+        <v>0.64319000000000004</v>
+      </c>
+      <c r="I2" s="43">
+        <v>2.5902000000000001E-2</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="38">
+        <v>20</v>
+      </c>
+      <c r="N2" s="38">
+        <v>3</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="40">
+        <v>65.711133333333336</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>702.33333333333337</v>
+      </c>
+      <c r="R2" s="40">
+        <v>0.48097499999999999</v>
+      </c>
+      <c r="S2" s="40">
+        <v>0.69873333333333332</v>
+      </c>
+      <c r="T2" s="40">
+        <v>0.25009399999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="42">
-        <v>112.9623</v>
+      <c r="E3" s="43">
+        <v>56.423699999999997</v>
       </c>
       <c r="F3" s="42">
-        <v>11</v>
-      </c>
-      <c r="G3" s="42">
-        <v>0.34092</v>
-      </c>
-      <c r="H3" s="42">
-        <v>0.44158999999999998</v>
-      </c>
-      <c r="I3" s="42">
-        <v>8.8404999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+      <c r="G3" s="43">
+        <v>0.53956999999999999</v>
+      </c>
+      <c r="H3" s="43">
+        <v>0.74334999999999996</v>
+      </c>
+      <c r="I3" s="43">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="L3" s="53"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="40">
+        <v>110.09284333333333</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>6</v>
+      </c>
+      <c r="R3" s="40">
+        <v>0.23008666666666666</v>
+      </c>
+      <c r="S3" s="40">
+        <v>0.41089333333333333</v>
+      </c>
+      <c r="T3" s="40">
+        <v>-8.6995000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="42">
-        <v>80.478499999999997</v>
+      <c r="E4" s="43">
+        <v>61.487099999999998</v>
       </c>
       <c r="F4" s="42">
-        <v>29</v>
-      </c>
-      <c r="G4" s="42">
-        <v>0.4375</v>
-      </c>
-      <c r="H4" s="42">
-        <v>0.62322999999999995</v>
-      </c>
-      <c r="I4" s="42">
-        <v>3.5644000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+      <c r="G4" s="43">
+        <v>0.48781999999999998</v>
+      </c>
+      <c r="H4" s="43">
+        <v>0.70965999999999996</v>
+      </c>
+      <c r="I4" s="43">
+        <v>0.47017999999999999</v>
+      </c>
+      <c r="L4" s="53"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="40">
+        <v>97.806333333333328</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="R4" s="40">
+        <v>0.24536133333333332</v>
+      </c>
+      <c r="S4" s="40">
+        <v>0.61241000000000001</v>
+      </c>
+      <c r="T4" s="40">
+        <v>-3.1046333333333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="49">
+        <f>AVERAGE(E2:E4)</f>
+        <v>65.711133333333336</v>
+      </c>
+      <c r="F5" s="49">
+        <f>AVERAGE(F2:F4)</f>
+        <v>702.33333333333337</v>
+      </c>
+      <c r="G5" s="49">
+        <f>AVERAGE(G2:G4)</f>
+        <v>0.48097499999999999</v>
+      </c>
+      <c r="H5" s="49">
+        <f>AVERAGE(H2:H4)</f>
+        <v>0.69873333333333332</v>
+      </c>
+      <c r="I5" s="49">
+        <f>AVERAGE(I2:I4)</f>
+        <v>0.25009399999999998</v>
+      </c>
+      <c r="L5" s="54"/>
+      <c r="M5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="54">
+        <v>3</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="40">
+        <v>87.618333333333339</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>227.66666666666666</v>
+      </c>
+      <c r="R5" s="40">
+        <v>0.41166333333333327</v>
+      </c>
+      <c r="S5" s="40">
+        <v>0.53609999999999991</v>
+      </c>
+      <c r="T5" s="40">
+        <v>9.4036666666666671E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42">
         <v>3</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E6" s="43">
+        <v>100.3228</v>
+      </c>
+      <c r="F6" s="42">
+        <v>4</v>
+      </c>
+      <c r="G6" s="43">
+        <v>0.22234999999999999</v>
+      </c>
+      <c r="H6" s="43">
+        <v>0.46772000000000002</v>
+      </c>
+      <c r="I6" s="43">
+        <v>-0.35463</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="40">
+        <v>78.863199999999992</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="R6" s="40">
+        <v>0.33094666666666667</v>
+      </c>
+      <c r="S6" s="40">
+        <v>0.61730999999999991</v>
+      </c>
+      <c r="T6" s="40">
+        <v>-6.008433333333333E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="43">
+        <v>91.077730000000003</v>
+      </c>
+      <c r="F7" s="42">
+        <v>12</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0.35563</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0.16036</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="40">
+        <v>113.10769999999998</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>5</v>
+      </c>
+      <c r="R7" s="40">
+        <v>4.6382666666666676E-2</v>
+      </c>
+      <c r="S7" s="40">
+        <v>0.216419</v>
+      </c>
+      <c r="T7" s="40">
+        <v>3.8802133333333329E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="42">
+        <v>138.87799999999999</v>
+      </c>
+      <c r="F8" s="42">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0.11228</v>
+      </c>
+      <c r="H8" s="43">
+        <v>0.21546000000000001</v>
+      </c>
+      <c r="I8" s="43">
+        <v>-6.6714999999999997E-2</v>
+      </c>
+      <c r="L8" s="53"/>
+      <c r="M8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="38">
+        <v>3</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="40">
+        <v>87.618333333333339</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>227.66666666666666</v>
+      </c>
+      <c r="R8" s="40">
+        <v>0.41166333333333327</v>
+      </c>
+      <c r="S8" s="40">
+        <v>0.53609999999999991</v>
+      </c>
+      <c r="T8" s="40">
+        <v>9.4036666666666671E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="49">
+        <f>AVERAGE(E6:E8)</f>
+        <v>110.09284333333333</v>
+      </c>
+      <c r="F9" s="47">
+        <f>AVERAGE(F6:F8)</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="49">
+        <f>AVERAGE(G6:G8)</f>
+        <v>0.23008666666666666</v>
+      </c>
+      <c r="H9" s="49">
+        <f>AVERAGE(H6:H8)</f>
+        <v>0.41089333333333333</v>
+      </c>
+      <c r="I9" s="49">
+        <f>AVERAGE(I6:I8)</f>
+        <v>-8.6995000000000003E-2</v>
+      </c>
+      <c r="L9" s="53"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="40">
+        <v>78.863199999999992</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="R9" s="40">
+        <v>0.33094666666666667</v>
+      </c>
+      <c r="S9" s="40">
+        <v>0.61730999999999991</v>
+      </c>
+      <c r="T9" s="40">
+        <v>-6.008433333333333E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42">
         <v>3</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10" s="42">
         <v>90.734999999999999</v>
@@ -3108,72 +4007,175 @@
       <c r="F10" s="42">
         <v>25</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="43">
         <v>0.42718</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="43">
         <v>0.87163000000000002</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="43">
         <v>1.5800999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="53"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="40">
+        <v>113.10769999999998</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>5</v>
+      </c>
+      <c r="R10" s="40">
+        <v>4.6382666666666676E-2</v>
+      </c>
+      <c r="S10" s="40">
+        <v>0.216419</v>
+      </c>
+      <c r="T10" s="40">
+        <v>3.8802133333333329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
-      <c r="E11" s="42">
+      <c r="E11" s="43">
         <v>102.7557</v>
       </c>
       <c r="F11" s="42">
         <v>9</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="43">
         <v>0.22112999999999999</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="43">
         <v>0.46723999999999999</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="43">
         <v>0.16303999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="53"/>
+      <c r="M11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="38">
+        <v>3</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="40">
+        <v>101.62636666666667</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>31.666666666666668</v>
+      </c>
+      <c r="R11" s="40">
+        <v>0.25534999999999997</v>
+      </c>
+      <c r="S11" s="40">
+        <v>0.48088000000000003</v>
+      </c>
+      <c r="T11" s="40">
+        <v>-1.3814333333333333E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
-      <c r="E12" s="42">
+      <c r="E12" s="43">
         <v>99.928299999999993</v>
       </c>
       <c r="F12" s="42">
         <v>6</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="43">
         <v>8.7774000000000005E-2</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="43">
         <v>0.49836000000000003</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="43">
         <v>-0.27198</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="53"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="40">
+        <v>64.427266666666654</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="R12" s="40">
+        <v>0.45873666666666663</v>
+      </c>
+      <c r="S12" s="40">
+        <v>0.67903999999999998</v>
+      </c>
+      <c r="T12" s="40">
+        <v>0.23970366666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="49">
+        <f>AVERAGE(E10:E12)</f>
+        <v>97.806333333333328</v>
+      </c>
+      <c r="F13" s="49">
+        <f>AVERAGE(F10:F12)</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="G13" s="49">
+        <f>AVERAGE(G10:G12)</f>
+        <v>0.24536133333333332</v>
+      </c>
+      <c r="H13" s="49">
+        <f>AVERAGE(H10:H12)</f>
+        <v>0.61241000000000001</v>
+      </c>
+      <c r="I13" s="49">
+        <f>AVERAGE(I10:I12)</f>
+        <v>-3.1046333333333332E-2</v>
+      </c>
+      <c r="L13" s="53"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="40">
+        <v>94.649466666666669</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="R13" s="40">
+        <v>0.31346666666666667</v>
+      </c>
+      <c r="S13" s="40">
+        <v>0.49286666666666662</v>
+      </c>
+      <c r="T13" s="40">
+        <v>6.1861333333333331E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="38" t="s">
         <v>0</v>
@@ -3182,139 +4184,271 @@
         <v>3</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E14" s="38">
-        <v>88.779300000000006</v>
+        <v>112.371</v>
       </c>
       <c r="F14" s="38">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G14" s="40">
-        <v>0.20046</v>
+        <v>0.27173999999999998</v>
       </c>
       <c r="H14" s="40">
-        <v>0.59345999999999999</v>
+        <v>0.38704</v>
       </c>
       <c r="I14" s="40">
-        <v>-0.17657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.12694</v>
+      </c>
+      <c r="L14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="38">
-        <v>80.306299999999993</v>
+      <c r="E15" s="40">
+        <v>88.174199999999999</v>
       </c>
       <c r="F15" s="38">
-        <v>17</v>
+        <v>636</v>
       </c>
       <c r="G15" s="40">
-        <v>0.37306</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="H15" s="40">
-        <v>0.64507000000000003</v>
+        <v>0.51578000000000002</v>
       </c>
       <c r="I15" s="40">
-        <v>-0.26228000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-0.13175999999999999</v>
+      </c>
+      <c r="L15" s="55"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="38">
-        <v>76.298599999999993</v>
+      <c r="E16" s="40">
+        <v>62.309800000000003</v>
       </c>
       <c r="F16" s="38">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G16" s="40">
-        <v>0.39</v>
+        <v>0.55025000000000002</v>
       </c>
       <c r="H16" s="40">
-        <v>0.63693</v>
+        <v>0.70548</v>
       </c>
       <c r="I16" s="40">
-        <v>-9.4728000000000007E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.28693000000000002</v>
+      </c>
+      <c r="L16" s="55"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="49">
+        <f>AVERAGE(E14:E16)</f>
+        <v>87.618333333333339</v>
+      </c>
+      <c r="F17" s="49">
+        <f>AVERAGE(F14:F16)</f>
+        <v>227.66666666666666</v>
+      </c>
+      <c r="G17" s="49">
+        <f>AVERAGE(G14:G16)</f>
+        <v>0.41166333333333327</v>
+      </c>
+      <c r="H17" s="49">
+        <f>AVERAGE(H14:H16)</f>
+        <v>0.53609999999999991</v>
+      </c>
+      <c r="I17" s="49">
+        <f>AVERAGE(I14:I16)</f>
+        <v>9.4036666666666671E-2</v>
+      </c>
+      <c r="L17" s="55"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38">
         <v>3</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E18" s="40">
+        <v>92.281599999999997</v>
+      </c>
+      <c r="F18" s="38">
+        <v>22</v>
+      </c>
+      <c r="G18" s="40">
+        <v>0.26255000000000001</v>
+      </c>
+      <c r="H18" s="40">
+        <v>0.56233999999999995</v>
+      </c>
+      <c r="I18" s="40">
+        <v>-4.5659999999999999E-2</v>
+      </c>
+      <c r="L18" s="55"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="40">
+        <v>66.903099999999995</v>
+      </c>
+      <c r="F19" s="38">
+        <v>15</v>
+      </c>
+      <c r="G19" s="40">
+        <v>0.46318999999999999</v>
+      </c>
+      <c r="H19" s="40">
+        <v>0.65624000000000005</v>
+      </c>
+      <c r="I19" s="40">
+        <v>1.7406999999999999E-2</v>
+      </c>
+      <c r="L19" s="55"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="40">
+        <v>77.404899999999998</v>
+      </c>
+      <c r="F20" s="38">
+        <v>13</v>
+      </c>
+      <c r="G20" s="40">
+        <v>0.2671</v>
+      </c>
+      <c r="H20" s="40">
+        <v>0.63334999999999997</v>
+      </c>
+      <c r="I20" s="40">
+        <v>-0.152</v>
+      </c>
+      <c r="L20" s="55"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="49">
+        <f>AVERAGE(E18:E20)</f>
+        <v>78.863199999999992</v>
+      </c>
+      <c r="F21" s="49">
+        <f>AVERAGE(F18:F20)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G21" s="49">
+        <f>AVERAGE(G18:G20)</f>
+        <v>0.33094666666666667</v>
+      </c>
+      <c r="H21" s="49">
+        <f>AVERAGE(H18:H20)</f>
+        <v>0.61730999999999991</v>
+      </c>
+      <c r="I21" s="49">
+        <f>AVERAGE(I18:I20)</f>
+        <v>-6.008433333333333E-2</v>
+      </c>
+      <c r="L21" s="55"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38">
         <v>3</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="38">
+        <v>19</v>
+      </c>
+      <c r="E22" s="40">
         <v>119.9555</v>
       </c>
       <c r="F22" s="38">
@@ -3329,13 +4463,22 @@
       <c r="I22" s="40">
         <v>-9.8156000000000007E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="55"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="38">
+      <c r="E23" s="40">
         <v>118.02509999999999</v>
       </c>
       <c r="F23" s="38">
@@ -3350,13 +4493,22 @@
       <c r="I23" s="40">
         <v>-6.7928000000000002E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L23" s="55"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="38">
+      <c r="E24" s="40">
         <v>101.3425</v>
       </c>
       <c r="F24" s="38">
@@ -3371,21 +4523,54 @@
       <c r="I24" s="40">
         <v>0.19414999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L24" s="55"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="49">
+        <f>AVERAGE(E22:E24)</f>
+        <v>113.10769999999998</v>
+      </c>
+      <c r="F25" s="47">
+        <f>AVERAGE(F22:F24)</f>
+        <v>5</v>
+      </c>
+      <c r="G25" s="49">
+        <f>AVERAGE(G22:G24)</f>
+        <v>4.6382666666666676E-2</v>
+      </c>
+      <c r="H25" s="49">
+        <f>AVERAGE(H22:H24)</f>
+        <v>0.216419</v>
+      </c>
+      <c r="I25" s="49">
+        <f>AVERAGE(I22:I24)</f>
+        <v>3.8802133333333329E-2</v>
+      </c>
+      <c r="L25" s="55"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="42" t="s">
         <v>2</v>
@@ -3394,137 +4579,269 @@
         <v>3</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E26" s="43">
-        <v>46.387900000000002</v>
+        <v>82.197100000000006</v>
       </c>
       <c r="F26" s="42">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G26" s="43">
-        <v>0.51773000000000002</v>
+        <v>0.34577999999999998</v>
       </c>
       <c r="H26" s="43">
-        <v>0.78430999999999995</v>
+        <v>0.59484000000000004</v>
       </c>
       <c r="I26" s="43">
-        <v>0.25146000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-0.20166999999999999</v>
+      </c>
+      <c r="L26" s="55"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
       <c r="E27" s="43">
-        <v>116.39749999999999</v>
+        <v>114.02719999999999</v>
       </c>
       <c r="F27" s="42">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G27" s="43">
-        <v>0.34390999999999999</v>
+        <v>0.11806</v>
       </c>
       <c r="H27" s="43">
-        <v>0.30593999999999999</v>
+        <v>0.51614000000000004</v>
       </c>
       <c r="I27" s="43">
-        <v>0.24238000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.13408999999999999</v>
+      </c>
+      <c r="L27" s="55"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
       <c r="E28" s="43">
-        <v>80.641000000000005</v>
+        <v>108.65479999999999</v>
       </c>
       <c r="F28" s="42">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G28" s="43">
-        <v>0.40427000000000002</v>
+        <v>0.30220999999999998</v>
       </c>
       <c r="H28" s="43">
-        <v>0.57210000000000005</v>
+        <v>0.33166000000000001</v>
       </c>
       <c r="I28" s="43">
-        <v>0.29832999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.6137000000000001E-2</v>
+      </c>
+      <c r="L28" s="55"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49">
+        <f>AVERAGE(E26:E28)</f>
+        <v>101.62636666666667</v>
+      </c>
+      <c r="F29" s="49">
+        <f>AVERAGE(F26:F28)</f>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="G29" s="49">
+        <f>AVERAGE(G26:G28)</f>
+        <v>0.25534999999999997</v>
+      </c>
+      <c r="H29" s="49">
+        <f>AVERAGE(H26:H28)</f>
+        <v>0.48088000000000003</v>
+      </c>
+      <c r="I29" s="49">
+        <f>AVERAGE(I26:I28)</f>
+        <v>-1.3814333333333333E-2</v>
+      </c>
+      <c r="L29" s="55"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42">
         <v>3</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E30" s="43">
+        <v>68.791799999999995</v>
+      </c>
+      <c r="F30" s="42">
+        <v>25</v>
+      </c>
+      <c r="G30" s="43">
+        <v>0.48544999999999999</v>
+      </c>
+      <c r="H30" s="43">
+        <v>0.67159000000000002</v>
+      </c>
+      <c r="I30" s="43">
+        <v>0.41083999999999998</v>
+      </c>
+      <c r="L30" s="55"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="43">
+        <v>70.072599999999994</v>
+      </c>
+      <c r="F31" s="42">
+        <v>18</v>
+      </c>
+      <c r="G31" s="43">
+        <v>0.41791</v>
+      </c>
+      <c r="H31" s="43">
+        <v>0.63373000000000002</v>
+      </c>
+      <c r="I31" s="43">
+        <v>0.38843</v>
+      </c>
+      <c r="L31" s="55"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="43">
+        <v>54.417400000000001</v>
+      </c>
+      <c r="F32" s="42">
+        <v>31</v>
+      </c>
+      <c r="G32" s="43">
+        <v>0.47284999999999999</v>
+      </c>
+      <c r="H32" s="43">
+        <v>0.73180000000000001</v>
+      </c>
+      <c r="I32" s="43">
+        <v>-8.0158999999999994E-2</v>
+      </c>
+      <c r="L32" s="55"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49">
+        <f>AVERAGE(E30:E32)</f>
+        <v>64.427266666666654</v>
+      </c>
+      <c r="F33" s="49">
+        <f>AVERAGE(F30:F32)</f>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="G33" s="49">
+        <f>AVERAGE(G30:G32)</f>
+        <v>0.45873666666666663</v>
+      </c>
+      <c r="H33" s="49">
+        <f>AVERAGE(H30:H32)</f>
+        <v>0.67903999999999998</v>
+      </c>
+      <c r="I33" s="49">
+        <f>AVERAGE(I30:I32)</f>
+        <v>0.23970366666666665</v>
+      </c>
+      <c r="L33" s="55"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42">
         <v>3</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E34" s="43">
         <v>104.4114</v>
@@ -3541,61 +4858,112 @@
       <c r="I34" s="43">
         <v>0.22642000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L34" s="55"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
-      <c r="E35" s="44">
+      <c r="E35" s="50">
         <v>59.256700000000002</v>
       </c>
       <c r="F35" s="44">
         <v>27</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="50">
         <v>0.50292000000000003</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="50">
         <v>0.70287999999999995</v>
       </c>
-      <c r="I35" s="44">
+      <c r="I35" s="50">
         <v>3.7093000000000001E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
       <c r="D36" s="44"/>
-      <c r="E36" s="44">
+      <c r="E36" s="50">
         <v>120.2803</v>
       </c>
       <c r="F36" s="44">
         <v>3</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="50">
         <v>5.8380000000000001E-2</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="50">
         <v>0.38428000000000001</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="50">
         <v>-7.7928999999999998E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="49">
+        <f>AVERAGE(E34:E36)</f>
+        <v>94.649466666666669</v>
+      </c>
+      <c r="F37" s="49">
+        <f>AVERAGE(F34:F36)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="G37" s="49">
+        <f>AVERAGE(G34:G36)</f>
+        <v>0.31346666666666667</v>
+      </c>
+      <c r="H37" s="49">
+        <f>AVERAGE(H34:H36)</f>
+        <v>0.49286666666666662</v>
+      </c>
+      <c r="I37" s="49">
+        <f>AVERAGE(I34:I36)</f>
+        <v>6.1861333333333331E-2</v>
+      </c>
+      <c r="L37" s="55"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
